--- a/public/import/daily_template RSH.xlsx
+++ b/public/import/daily_template RSH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>date</t>
   </si>
@@ -163,30 +163,36 @@
     <t>Masukan ke rencana Kerja minggu depan jadwal activity , jadwal kunjungan cari leads, dan follow up</t>
   </si>
   <si>
-    <t>2022-06-15</t>
+    <t xml:space="preserve">Isi form monitoring penjualan dan report ke grup toko </t>
+  </si>
+  <si>
+    <t>Mencatat hasil briefing dan reportkan ke grup atau leader masing - masing</t>
+  </si>
+  <si>
+    <t>Report penjualan pertim toko ke grup masing - masing area</t>
+  </si>
+  <si>
+    <t>rsh wajib monitoring Pengisian  SOA japri ke tim Toko dan promotor</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,15 +230,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,328 +544,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="134.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="18.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="134.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
